--- a/Gomez Marcos - Escenario de Perdida - contingencia.xlsx
+++ b/Gomez Marcos - Escenario de Perdida - contingencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Mercado Meta" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="190">
   <si>
     <t>Costos Fijos</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Costos Variables Año 3</t>
   </si>
   <si>
-    <t>Ingreso Promedio por Evento</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>Windows Server</t>
   </si>
   <si>
-    <t>Desarrollo EventosIT</t>
-  </si>
-  <si>
     <t>Modelo de Datos</t>
   </si>
   <si>
@@ -517,12 +511,6 @@
     <t>Responsable Promoción y Penetración.</t>
   </si>
   <si>
-    <t>Año 2. Se suman 3 recursos</t>
-  </si>
-  <si>
-    <t>Año 3. Se suman 2 recursos</t>
-  </si>
-  <si>
     <t>Gerente Técnica</t>
   </si>
   <si>
@@ -569,6 +557,45 @@
   </si>
   <si>
     <t>Costo Desarrollo SGPT</t>
+  </si>
+  <si>
+    <t>Ingreso Venta</t>
+  </si>
+  <si>
+    <t>Anos Amortizacion</t>
+  </si>
+  <si>
+    <t>Resultado parcial</t>
+  </si>
+  <si>
+    <t>Valor de activos a los 3 años</t>
+  </si>
+  <si>
+    <t>Desarrollo del sitio</t>
+  </si>
+  <si>
+    <t>A los 3 años</t>
+  </si>
+  <si>
+    <t>Valor venta</t>
+  </si>
+  <si>
+    <t>Prom ventas por mes</t>
+  </si>
+  <si>
+    <t>Salarios Fijos</t>
+  </si>
+  <si>
+    <t>Salarios Variables</t>
+  </si>
+  <si>
+    <t>Año 3. Se suman 2 recursos, y otro Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Año 2. Se suman 3 nuevos recursos y un nuevo Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Soporte Tecnico</t>
   </si>
 </sst>
 </file>
@@ -741,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +820,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,7 +1388,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,6 +1729,9 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,6 +1841,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2058,8 +2111,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="40330240"/>
-        <c:axId val="156370624"/>
+        <c:axId val="42870272"/>
+        <c:axId val="59836672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2232,11 +2285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40311808"/>
-        <c:axId val="156371200"/>
+        <c:axId val="42880512"/>
+        <c:axId val="59837248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40330240"/>
+        <c:axId val="42870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2332,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156370624"/>
+        <c:crossAx val="59836672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2287,7 +2340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156370624"/>
+        <c:axId val="59836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +2391,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40330240"/>
+        <c:crossAx val="42870272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156371200"/>
+        <c:axId val="59837248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,12 +2433,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40311808"/>
+        <c:crossAx val="42880512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="40311808"/>
+        <c:axId val="42880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156371200"/>
+        <c:crossAx val="59837248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2775,11 +2828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156718592"/>
-        <c:axId val="156373504"/>
+        <c:axId val="45082112"/>
+        <c:axId val="59839552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156718592"/>
+        <c:axId val="45082112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +2891,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156373504"/>
+        <c:crossAx val="59839552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156373504"/>
+        <c:axId val="59839552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,7 +2958,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156718592"/>
+        <c:crossAx val="45082112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3353,11 +3406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156719616"/>
-        <c:axId val="156375808"/>
+        <c:axId val="45083136"/>
+        <c:axId val="59841856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156719616"/>
+        <c:axId val="45083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3469,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156375808"/>
+        <c:crossAx val="59841856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3424,7 +3477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156375808"/>
+        <c:axId val="59841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3536,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156719616"/>
+        <c:crossAx val="45083136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3931,11 +3984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156720640"/>
-        <c:axId val="157189248"/>
+        <c:axId val="45083648"/>
+        <c:axId val="45631168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156720640"/>
+        <c:axId val="45083648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +4047,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157189248"/>
+        <c:crossAx val="45631168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4002,7 +4055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157189248"/>
+        <c:axId val="45631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,7 +4114,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156720640"/>
+        <c:crossAx val="45083648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4809,11 +4862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40329728"/>
-        <c:axId val="157191552"/>
+        <c:axId val="45080576"/>
+        <c:axId val="45633472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40329728"/>
+        <c:axId val="45080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4930,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157191552"/>
+        <c:crossAx val="45633472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4885,7 +4938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157191552"/>
+        <c:axId val="45633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4944,7 +4997,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40329728"/>
+        <c:crossAx val="45080576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8736,7 +8789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8747,7 +8800,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8775,7 +8828,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="24">
         <v>120</v>
@@ -8789,7 +8842,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="75">
         <f>E16*B5</f>
@@ -8806,23 +8859,23 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D11" s="23" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="73" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8842,7 +8895,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8857,16 +8910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="E1" s="170" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="173"/>
+      <c r="E1" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8888,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8912,7 +8965,7 @@
       </c>
       <c r="H3" s="48">
         <f>G3/$G$7</f>
-        <v>0.75187969924812026</v>
+        <v>0.31948881789137379</v>
       </c>
       <c r="I3" s="44"/>
     </row>
@@ -8937,7 +8990,7 @@
       </c>
       <c r="H4" s="48">
         <f t="shared" ref="H4:H5" si="0">G4/$G$7</f>
-        <v>0.11278195488721804</v>
+        <v>4.7923322683706068E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8961,7 +9014,7 @@
       </c>
       <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>0.13533834586466165</v>
+        <v>5.7507987220447282E-2</v>
       </c>
       <c r="I5" s="30"/>
     </row>
@@ -8975,9 +9028,15 @@
       <c r="C6" s="9">
         <v>1300</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>18000</v>
+      </c>
       <c r="I6" s="30"/>
       <c r="J6" s="25"/>
     </row>
@@ -8997,7 +9056,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="13">
         <f>SUM(G3:G6)</f>
-        <v>13300</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9016,18 +9075,18 @@
       </c>
       <c r="G8" s="13">
         <f>G7*12</f>
-        <v>159600</v>
+        <v>375600</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="12">
-        <f>Recursos!D94</f>
+        <f>Recursos!D102</f>
         <v>130000</v>
       </c>
     </row>
@@ -9055,18 +9114,18 @@
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="E13" s="170" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="173"/>
+      <c r="E13" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
       <c r="H13" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9169,9 +9228,16 @@
       <c r="C18" s="9">
         <v>1300</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <f>G6*2</f>
+        <v>36000</v>
+      </c>
       <c r="H18" s="46"/>
       <c r="I18" s="30"/>
     </row>
@@ -9191,7 +9257,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="13">
         <f>(G7*H14)+G7</f>
-        <v>26600</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9210,18 +9276,18 @@
       </c>
       <c r="G20" s="13">
         <f>G19*12</f>
-        <v>319200</v>
+        <v>751200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="12">
-        <f>Recursos!E94</f>
+        <f>Recursos!E102</f>
         <v>224250</v>
       </c>
     </row>
@@ -9247,18 +9313,18 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="E25" s="170" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="173"/>
+      <c r="E25" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
       <c r="H25" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9303,7 +9369,7 @@
       </c>
       <c r="G27" s="9">
         <f>G31*H3</f>
-        <v>39166.666666666672</v>
+        <v>39166.666666666664</v>
       </c>
       <c r="I27" s="44"/>
     </row>
@@ -9361,9 +9427,16 @@
       <c r="C30" s="9">
         <v>1300</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="9">
+        <f>G6*3</f>
+        <v>54000</v>
+      </c>
       <c r="H30" s="46"/>
       <c r="I30" s="30"/>
     </row>
@@ -9383,7 +9456,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="13">
         <f>(G19*H26)+G19</f>
-        <v>52091.666666666672</v>
+        <v>122591.66666666667</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9402,18 +9475,18 @@
       </c>
       <c r="G32" s="13">
         <f>G31*12</f>
-        <v>625100</v>
+        <v>1471100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="12">
-        <f>+Recursos!F94</f>
+        <f>+Recursos!F102</f>
         <v>292500</v>
       </c>
     </row>
@@ -9456,7 +9529,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9467,7 +9540,7 @@
     <col min="4" max="7" width="14.85546875" style="76" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="76" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="76" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="76" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="76" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="76" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="76" bestFit="1" customWidth="1"/>
@@ -9476,18 +9549,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="173" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="174"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="78"/>
       <c r="K1" s="137" t="s">
         <v>19</v>
@@ -9501,7 +9574,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="133" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" s="79">
         <f>'Mercado Meta'!B5/12</f>
@@ -9520,7 +9593,7 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
       <c r="J2" s="141" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="K2" s="83">
         <f>C2</f>
@@ -9587,7 +9660,7 @@
       <c r="H4" s="91"/>
       <c r="I4" s="86"/>
       <c r="J4" s="140" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="K4" s="92">
         <v>12000</v>
@@ -9626,23 +9699,23 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="175" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175" t="s">
+      <c r="F7" s="177"/>
+      <c r="G7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="176"/>
+      <c r="H7" s="177"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="133" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" s="82">
         <f>'Mercado Meta'!B5</f>
@@ -9701,10 +9774,10 @@
       <c r="H10" s="103"/>
       <c r="I10" s="86"/>
       <c r="K10" s="142" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L10" s="144" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9728,7 +9801,7 @@
       </c>
       <c r="I11" s="96"/>
       <c r="K11" s="143" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="15">
         <v>12000</v>
@@ -10543,12 +10616,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="184" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10562,7 +10635,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="184"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="123" t="s">
         <v>10</v>
       </c>
@@ -10575,7 +10648,7 @@
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
@@ -10588,7 +10661,7 @@
       <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="184"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="123" t="s">
         <v>11</v>
       </c>
@@ -10600,7 +10673,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="184"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="123" t="s">
         <v>5</v>
       </c>
@@ -10614,7 +10687,7 @@
       <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="184"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="123" t="s">
         <v>6</v>
       </c>
@@ -10625,14 +10698,14 @@
         <v>600</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="37">
         <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="123" t="s">
         <v>7</v>
       </c>
@@ -10644,7 +10717,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="185"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="126" t="s">
         <v>8</v>
       </c>
@@ -10656,7 +10729,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="184" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="123" t="s">
@@ -10670,7 +10743,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="184"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="123" t="s">
         <v>15</v>
       </c>
@@ -10682,7 +10755,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="185"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="129" t="s">
         <v>16</v>
       </c>
@@ -10694,10 +10767,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="186" t="s">
+      <c r="C14" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="187"/>
+      <c r="D14" s="188"/>
       <c r="E14" s="132">
         <f>SUM(E4:E13)</f>
         <v>159000</v>
@@ -10725,13 +10798,13 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>26</v>
@@ -10741,7 +10814,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="181" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="114">
@@ -10764,7 +10837,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="114">
         <v>2</v>
       </c>
@@ -10786,7 +10859,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="114">
         <v>3</v>
       </c>
@@ -10808,7 +10881,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="114">
         <v>4</v>
       </c>
@@ -10830,7 +10903,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="114">
         <v>5</v>
       </c>
@@ -10852,7 +10925,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="114">
         <v>6</v>
       </c>
@@ -10874,7 +10947,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="114">
         <v>7</v>
       </c>
@@ -10896,7 +10969,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="114">
         <v>8</v>
       </c>
@@ -10918,7 +10991,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="114">
         <v>9</v>
       </c>
@@ -10940,7 +11013,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="114">
         <v>10</v>
       </c>
@@ -10962,7 +11035,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="114">
         <v>11</v>
       </c>
@@ -10984,7 +11057,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="117">
         <v>12</v>
       </c>
@@ -11006,7 +11079,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="114">
         <v>13</v>
       </c>
@@ -11028,7 +11101,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="114">
         <v>14</v>
       </c>
@@ -11074,7 +11147,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="178" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="120">
@@ -11098,7 +11171,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="178"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="120">
         <v>17</v>
       </c>
@@ -11120,7 +11193,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="178"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="120">
         <v>18</v>
       </c>
@@ -11142,7 +11215,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="178"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="120">
         <v>19</v>
       </c>
@@ -11164,7 +11237,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="120">
         <v>20</v>
       </c>
@@ -11203,8 +11276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11232,23 +11305,23 @@
       <c r="A2" s="52"/>
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="153"/>
       <c r="H2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11285,19 +11358,19 @@
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="G4" s="156" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H4" s="157">
         <f>C15*-1</f>
-        <v>-226527.61249999999</v>
+        <v>-302127.61249999999</v>
       </c>
       <c r="I4" s="157">
         <f t="shared" ref="I4:J4" si="0">D15*-1</f>
-        <v>96872.387499999997</v>
+        <v>-54327.612499999996</v>
       </c>
       <c r="J4" s="157">
         <f t="shared" si="0"/>
-        <v>656431.38749999995</v>
+        <v>360331.38749999995</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11358,25 +11431,25 @@
       </c>
       <c r="C8" s="62">
         <f>-Costos!G8</f>
-        <v>-159600</v>
+        <v>-375600</v>
       </c>
       <c r="D8" s="62">
         <f>-Costos!G20</f>
-        <v>-319200</v>
+        <v>-751200</v>
       </c>
       <c r="E8" s="62">
         <f>-Costos!G32</f>
-        <v>-625100</v>
+        <v>-1471100</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -11427,7 +11500,7 @@
         <v>-145621.75</v>
       </c>
       <c r="G10" s="156" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H10" s="157">
         <f>C5*0.03</f>
@@ -11450,15 +11523,15 @@
       </c>
       <c r="C11" s="64">
         <f>SUM(C8:C10)</f>
-        <v>-2087221.75</v>
+        <v>-2303221.75</v>
       </c>
       <c r="D11" s="64">
         <f>SUM(D8:D10)</f>
-        <v>-2603221.75</v>
+        <v>-3035221.75</v>
       </c>
       <c r="E11" s="64">
         <f>SUM(E8:E10)</f>
-        <v>-3764481.75</v>
+        <v>-4610481.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11478,15 +11551,15 @@
       </c>
       <c r="C13" s="66">
         <f>+C6+C11</f>
-        <v>-647221.75</v>
+        <v>-863221.75</v>
       </c>
       <c r="D13" s="66">
         <f>+D6+D11</f>
-        <v>276778.25</v>
+        <v>-155221.75</v>
       </c>
       <c r="E13" s="66">
         <f>+E6+E11</f>
-        <v>1875518.25</v>
+        <v>1029518.25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11503,15 +11576,15 @@
       <c r="B15" s="55"/>
       <c r="C15" s="67">
         <f>-C13*0.35</f>
-        <v>226527.61249999999</v>
+        <v>302127.61249999999</v>
       </c>
       <c r="D15" s="67">
         <f>-D13*0.35</f>
-        <v>-96872.387499999997</v>
+        <v>54327.612499999996</v>
       </c>
       <c r="E15" s="67">
         <f>-E13*0.35</f>
-        <v>-656431.38749999995</v>
+        <v>-360331.38749999995</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11528,15 +11601,15 @@
       <c r="B17" s="55"/>
       <c r="C17" s="68">
         <f>C15+C13</f>
-        <v>-420694.13750000001</v>
+        <v>-561094.13749999995</v>
       </c>
       <c r="D17" s="68">
         <f>D15+D13</f>
-        <v>179905.86249999999</v>
+        <v>-100894.13750000001</v>
       </c>
       <c r="E17" s="68">
         <f>E15+E13</f>
-        <v>1219086.8625</v>
+        <v>669186.86250000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11574,15 +11647,15 @@
       </c>
       <c r="C20" s="68">
         <f>SUM(C17:C19)</f>
-        <v>-275072.38750000001</v>
+        <v>-415472.38749999995</v>
       </c>
       <c r="D20" s="68">
         <f>SUM(D17:D19)</f>
-        <v>325527.61249999999</v>
+        <v>44727.612499999988</v>
       </c>
       <c r="E20" s="68">
         <f>SUM(E17:E19)</f>
-        <v>1364708.6125</v>
+        <v>814808.61250000005</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11609,7 +11682,7 @@
       </c>
       <c r="B23" s="168">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>233787.58854744153</v>
+        <v>-410692.88652290357</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11618,7 +11691,7 @@
       </c>
       <c r="B24" s="169">
         <f>IRR(B20:E20,30)</f>
-        <v>0.31572923182857182</v>
+        <v>-5.580573141207168E-2</v>
       </c>
       <c r="G24" s="29"/>
     </row>
@@ -11630,10 +11703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11650,49 +11723,49 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="148" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F1" s="148" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="147" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="147" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="189" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="191"/>
+        <v>139</v>
+      </c>
+      <c r="H4" s="190" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="194"/>
+        <v>140</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
       <c r="F5" s="147" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H5" s="39">
         <v>1</v>
@@ -11706,7 +11779,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -11719,7 +11792,7 @@
         <v>36000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="39">
         <v>10</v>
@@ -11739,7 +11812,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -11752,7 +11825,7 @@
         <v>30000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="39">
         <v>10</v>
@@ -11772,7 +11845,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -11785,7 +11858,7 @@
         <v>16000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="39">
         <v>10</v>
@@ -11805,7 +11878,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -11818,7 +11891,7 @@
         <v>45000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="39">
         <v>10</v>
@@ -11838,24 +11911,24 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="149" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+        <v>141</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
       <c r="F10" s="149" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+        <v>146</v>
+      </c>
+      <c r="H10" s="199"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -11868,7 +11941,7 @@
         <v>150000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="39">
         <v>3</v>
@@ -11888,7 +11961,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -11901,7 +11974,7 @@
         <v>5000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="39">
         <v>3</v>
@@ -11921,24 +11994,24 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="149" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+        <v>112</v>
+      </c>
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
       <c r="F13" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="198"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
+        <v>146</v>
+      </c>
+      <c r="H13" s="199"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -11951,7 +12024,7 @@
         <v>31760</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="39">
         <v>3</v>
@@ -11971,7 +12044,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -11984,7 +12057,7 @@
         <v>40566</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="39">
         <v>3</v>
@@ -12004,7 +12077,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -12017,7 +12090,7 @@
         <v>14333</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="39">
         <v>3</v>
@@ -12037,24 +12110,24 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="149" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+        <v>142</v>
+      </c>
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
       <c r="F17" s="149" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+        <v>146</v>
+      </c>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -12068,7 +12141,7 @@
         <v>209475</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="G18" s="39">
         <v>4</v>
@@ -12087,11 +12160,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="188" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="189" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="43">
         <f>SUM(D6:D18)</f>
         <v>578134</v>
@@ -12112,9 +12185,167 @@
         <v>145621.75</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
+      <c r="A23" s="170" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="209"/>
+      <c r="E24" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="209" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="210">
+        <f>D6</f>
+        <v>36000</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="30">
+        <f>H6*3</f>
+        <v>10800</v>
+      </c>
+      <c r="F25" s="30">
+        <f>B25-E25</f>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="210">
+        <f>D7</f>
+        <v>30000</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="30">
+        <f>H7*3</f>
+        <v>9000</v>
+      </c>
+      <c r="F26" s="30">
+        <f t="shared" ref="F26:F31" si="3">B26-E26</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="210">
+        <f>D8</f>
+        <v>16000</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30">
+        <f>H8*3</f>
+        <v>4800</v>
+      </c>
+      <c r="F27" s="30">
+        <f t="shared" si="3"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="210">
+        <f>D9</f>
+        <v>45000</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="30">
+        <f>H9*3</f>
+        <v>13500</v>
+      </c>
+      <c r="F28" s="30">
+        <f t="shared" si="3"/>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="210">
+        <f>D11</f>
+        <v>150000</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="30">
+        <f>H11*3</f>
+        <v>150000</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="210">
+        <f>D12</f>
+        <v>5000</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="30">
+        <f>H12*3</f>
+        <v>5000</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="211">
+        <f>SUM(F25:F31)</f>
+        <v>88900</v>
       </c>
     </row>
   </sheetData>
@@ -12153,33 +12384,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="149" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="149" t="s">
-        <v>134</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
@@ -12191,22 +12422,22 @@
         <v>285</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="36">
         <f>D4*C4</f>
         <v>14250</v>
       </c>
       <c r="H4" s="149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" s="149" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="14">
         <v>20</v>
@@ -12218,14 +12449,14 @@
         <v>285</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="36">
         <f t="shared" ref="F5:F14" si="0">D5*C5</f>
         <v>14250</v>
       </c>
       <c r="H5" s="149" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I5" s="36">
         <v>285</v>
@@ -12233,7 +12464,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="14">
         <v>20</v>
@@ -12245,14 +12476,14 @@
         <v>285</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="H6" s="149" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="36">
         <v>270</v>
@@ -12260,7 +12491,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14">
         <v>15</v>
@@ -12272,14 +12503,14 @@
         <v>285</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I7" s="36">
         <v>300</v>
@@ -12287,7 +12518,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14">
         <v>18</v>
@@ -12299,7 +12530,7 @@
         <v>285</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="0"/>
@@ -12308,25 +12539,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="150" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="149" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="149" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="120"/>
       <c r="F9" s="149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -12338,7 +12569,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="0"/>
@@ -12347,7 +12578,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="14">
         <v>18</v>
@@ -12359,7 +12590,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="0"/>
@@ -12368,7 +12599,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="14">
         <v>18</v>
@@ -12380,7 +12611,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="0"/>
@@ -12389,7 +12620,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
@@ -12401,7 +12632,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="0"/>
@@ -12410,7 +12641,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="14">
         <v>5</v>
@@ -12422,7 +12653,7 @@
         <v>270</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="0"/>
@@ -12430,13 +12661,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
       <c r="F15" s="151">
         <f>SUM(F4:F14)</f>
         <v>209475</v>
@@ -12453,10 +12684,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O94"/>
+  <dimension ref="A3:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:O84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12506,28 +12737,28 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="160" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" s="145"/>
       <c r="C5" s="145"/>
-      <c r="D5" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
+      <c r="D5" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="87">
         <v>1</v>
@@ -12569,7 +12800,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="107">
         <f>SUM(D7:O8)</f>
@@ -12614,7 +12845,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -12639,7 +12870,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="104">
         <v>0.17</v>
@@ -12699,7 +12930,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="104">
         <v>0.06</v>
@@ -12759,7 +12990,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="108">
         <f>D7-D9-D10</f>
@@ -12812,30 +13043,30 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="160" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
+      <c r="D15" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="145"/>
       <c r="B16" s="145"/>
       <c r="C16" s="145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="146">
         <v>1</v>
@@ -12877,7 +13108,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
       <c r="B17" s="87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="107">
         <f>SUM(D17:O18)</f>
@@ -12922,7 +13153,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
@@ -12947,7 +13178,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="104">
         <v>0.17</v>
@@ -13007,7 +13238,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="104">
         <v>0.06</v>
@@ -13067,7 +13298,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="108">
         <f>D17-D19-D20</f>
@@ -13120,30 +13351,30 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="160" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
-      <c r="D24" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
+      <c r="D24" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="203"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="145"/>
       <c r="B25" s="145"/>
       <c r="C25" s="145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="146">
         <v>1</v>
@@ -13185,7 +13416,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
       <c r="B26" s="87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="107">
         <f>SUM(D26:O27)</f>
@@ -13230,7 +13461,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="87"/>
@@ -13255,7 +13486,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="104">
         <v>0.17</v>
@@ -13315,7 +13546,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" s="104">
         <v>0.06</v>
@@ -13375,7 +13606,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="108">
         <f>D26-D28-D29</f>
@@ -13426,1668 +13657,1992 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="145"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="214"/>
+    </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
+      <c r="C34" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="87">
+        <v>1</v>
+      </c>
+      <c r="E34" s="87">
+        <v>2</v>
+      </c>
+      <c r="F34" s="87">
+        <v>3</v>
+      </c>
+      <c r="G34" s="87">
+        <v>4</v>
+      </c>
+      <c r="H34" s="87">
+        <v>5</v>
+      </c>
+      <c r="I34" s="87">
+        <v>6</v>
+      </c>
+      <c r="J34" s="87">
+        <v>7</v>
+      </c>
+      <c r="K34" s="87">
+        <v>8</v>
+      </c>
+      <c r="L34" s="87">
+        <v>9</v>
+      </c>
+      <c r="M34" s="87">
+        <v>10</v>
+      </c>
+      <c r="N34" s="87">
+        <v>11</v>
+      </c>
+      <c r="O34" s="87">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="107">
+        <f>SUM(D35:O36)</f>
+        <v>234000</v>
+      </c>
+      <c r="D35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="F35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="G35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="H35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="I35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="J35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="K35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="L35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="M35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="N35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="O35" s="92">
+        <v>18000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="202" t="s">
+      <c r="A36" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="92">
+        <f>I35/2</f>
+        <v>9000</v>
+      </c>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="92">
+        <f>O35/2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C37" s="92">
+        <f t="shared" ref="C37:H37" si="19">C35*$B$9</f>
+        <v>39780</v>
+      </c>
+      <c r="D37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="E37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="F37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="G37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="H37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="I37" s="92">
+        <f>(I35+I36)*$B$9</f>
+        <v>4590</v>
+      </c>
+      <c r="J37" s="92">
+        <f>J35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="K37" s="92">
+        <f>K35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="L37" s="92">
+        <f>L35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="M37" s="92">
+        <f>M35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="N37" s="92">
+        <f>N35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="O37" s="92">
+        <f>(O35+O36)*$B$9</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C38" s="92">
+        <f t="shared" ref="C38:H38" si="20">C35*$B$10</f>
+        <v>14040</v>
+      </c>
+      <c r="D38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="E38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="F38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="G38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="H38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="I38" s="92">
+        <f>(I35+I36)*$B$10</f>
+        <v>1620</v>
+      </c>
+      <c r="J38" s="92">
+        <f>J35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="K38" s="92">
+        <f>K35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="L38" s="92">
+        <f>L35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="M38" s="92">
+        <f>M35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="N38" s="92">
+        <f>N35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="O38" s="92">
+        <f>(O35+O36)*$B$10</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="202"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="76" t="s">
+      <c r="D39" s="108">
+        <f>D35-D37-D38</f>
+        <v>13860</v>
+      </c>
+      <c r="E39" s="108">
+        <f t="shared" ref="E39:H39" si="21">E35-E37-E38</f>
+        <v>13860</v>
+      </c>
+      <c r="F39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="G39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="H39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="I39" s="108">
+        <f>I35+I36-I37-I38</f>
+        <v>20790</v>
+      </c>
+      <c r="J39" s="108">
+        <f t="shared" ref="J39:N39" si="22">J35-J37-J38</f>
+        <v>13860</v>
+      </c>
+      <c r="K39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="L39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="M39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="N39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="O39" s="108">
+        <f>O35+O36-O37-O38</f>
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="87">
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="213"/>
+      <c r="M44" s="213"/>
+      <c r="N44" s="213"/>
+      <c r="O44" s="214"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="87">
         <v>1</v>
       </c>
-      <c r="E37" s="87">
+      <c r="E45" s="87">
         <v>2</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F45" s="87">
         <v>3</v>
       </c>
-      <c r="G37" s="87">
+      <c r="G45" s="87">
         <v>4</v>
       </c>
-      <c r="H37" s="87">
+      <c r="H45" s="87">
         <v>5</v>
       </c>
-      <c r="I37" s="87">
+      <c r="I45" s="87">
         <v>6</v>
       </c>
-      <c r="J37" s="87">
+      <c r="J45" s="87">
         <v>7</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K45" s="87">
         <v>8</v>
       </c>
-      <c r="L37" s="87">
+      <c r="L45" s="87">
         <v>9</v>
       </c>
-      <c r="M37" s="87">
+      <c r="M45" s="87">
         <v>10</v>
       </c>
-      <c r="N37" s="87">
+      <c r="N45" s="87">
         <v>11</v>
       </c>
-      <c r="O37" s="87">
+      <c r="O45" s="87">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="107">
-        <f>SUM(D38:O39)</f>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="107">
+        <f>SUM(D46:O47)</f>
         <v>364000</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D46" s="92">
         <v>28000</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E46" s="92">
         <v>28000</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F46" s="92">
         <v>28000</v>
       </c>
-      <c r="G38" s="92">
+      <c r="G46" s="92">
         <v>28000</v>
       </c>
-      <c r="H38" s="92">
+      <c r="H46" s="92">
         <v>28000</v>
       </c>
-      <c r="I38" s="92">
+      <c r="I46" s="92">
         <v>28000</v>
       </c>
-      <c r="J38" s="92">
+      <c r="J46" s="92">
         <v>28000</v>
       </c>
-      <c r="K38" s="92">
+      <c r="K46" s="92">
         <v>28000</v>
       </c>
-      <c r="L38" s="92">
+      <c r="L46" s="92">
         <v>28000</v>
       </c>
-      <c r="M38" s="92">
+      <c r="M46" s="92">
         <v>28000</v>
       </c>
-      <c r="N38" s="92">
+      <c r="N46" s="92">
         <v>28000</v>
       </c>
-      <c r="O38" s="92">
+      <c r="O46" s="92">
         <v>28000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="92">
-        <f>I38/2</f>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="92">
+        <f>I46/2</f>
         <v>14000</v>
       </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="92">
-        <f>O38/2</f>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="92">
+        <f>O46/2</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="104">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="104">
         <v>0.17</v>
       </c>
-      <c r="C40" s="92">
-        <f t="shared" ref="C40:H40" si="19">C38*$B$9</f>
+      <c r="C48" s="92">
+        <f t="shared" ref="C48:H48" si="23">C46*$B$9</f>
         <v>61880.000000000007</v>
       </c>
-      <c r="D40" s="92">
-        <f t="shared" si="19"/>
+      <c r="D48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="E40" s="92">
-        <f t="shared" si="19"/>
+      <c r="E48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="F40" s="92">
-        <f t="shared" si="19"/>
+      <c r="F48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="G40" s="92">
-        <f t="shared" si="19"/>
+      <c r="G48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="H40" s="92">
-        <f t="shared" si="19"/>
+      <c r="H48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="I40" s="92">
-        <f>(I38+I39)*$B$9</f>
+      <c r="I48" s="92">
+        <f>(I46+I47)*$B$9</f>
         <v>7140.0000000000009</v>
       </c>
-      <c r="J40" s="92">
-        <f>J38*$B$9</f>
+      <c r="J48" s="92">
+        <f>J46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="K40" s="92">
-        <f>K38*$B$9</f>
+      <c r="K48" s="92">
+        <f>K46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="L40" s="92">
-        <f>L38*$B$9</f>
+      <c r="L48" s="92">
+        <f>L46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="M40" s="92">
-        <f>M38*$B$9</f>
+      <c r="M48" s="92">
+        <f>M46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="N40" s="92">
-        <f>N38*$B$9</f>
+      <c r="N48" s="92">
+        <f>N46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="O40" s="92">
-        <f>(O38+O39)*$B$9</f>
+      <c r="O48" s="92">
+        <f>(O46+O47)*$B$9</f>
         <v>7140.0000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C41" s="92">
-        <f t="shared" ref="C41:H41" si="20">C38*$B$10</f>
-        <v>21840</v>
-      </c>
-      <c r="D41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="E41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="F41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="G41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="H41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="I41" s="92">
-        <f>(I38+I39)*$B$10</f>
-        <v>2520</v>
-      </c>
-      <c r="J41" s="92">
-        <f>J38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="K41" s="92">
-        <f>K38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="L41" s="92">
-        <f>L38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="M41" s="92">
-        <f>M38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="N41" s="92">
-        <f>N38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="O41" s="92">
-        <f>(O38+O39)*$B$10</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C42" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="108">
-        <f>D38-D40-D41</f>
-        <v>21560</v>
-      </c>
-      <c r="E42" s="108">
-        <f t="shared" ref="E42" si="21">E38-E40-E41</f>
-        <v>21560</v>
-      </c>
-      <c r="F42" s="108">
-        <f t="shared" ref="F42" si="22">F38-F40-F41</f>
-        <v>21560</v>
-      </c>
-      <c r="G42" s="108">
-        <f t="shared" ref="G42" si="23">G38-G40-G41</f>
-        <v>21560</v>
-      </c>
-      <c r="H42" s="108">
-        <f t="shared" ref="H42" si="24">H38-H40-H41</f>
-        <v>21560</v>
-      </c>
-      <c r="I42" s="108">
-        <f>I38+I39-I40-I41</f>
-        <v>32340</v>
-      </c>
-      <c r="J42" s="108">
-        <f t="shared" ref="J42:N42" si="25">J38-J40-J41</f>
-        <v>21560</v>
-      </c>
-      <c r="K42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="L42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="M42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="N42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="O42" s="108">
-        <f>O38+O39-O40-O41</f>
-        <v>32340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="202"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="202"/>
-      <c r="O46" s="202"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="145"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="146">
-        <v>1</v>
-      </c>
-      <c r="E47" s="146">
-        <v>2</v>
-      </c>
-      <c r="F47" s="146">
-        <v>3</v>
-      </c>
-      <c r="G47" s="146">
-        <v>4</v>
-      </c>
-      <c r="H47" s="146">
-        <v>5</v>
-      </c>
-      <c r="I47" s="146">
-        <v>6</v>
-      </c>
-      <c r="J47" s="146">
-        <v>7</v>
-      </c>
-      <c r="K47" s="146">
-        <v>8</v>
-      </c>
-      <c r="L47" s="146">
-        <v>9</v>
-      </c>
-      <c r="M47" s="146">
-        <v>10</v>
-      </c>
-      <c r="N47" s="146">
-        <v>11</v>
-      </c>
-      <c r="O47" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="107">
-        <f>SUM(D48:O49)</f>
-        <v>390000</v>
-      </c>
-      <c r="D48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="E48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="F48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="G48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="H48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="I48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="J48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="K48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="L48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="M48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="N48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="O48" s="92">
-        <v>30000</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
+      <c r="B49" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C49" s="92">
+        <f t="shared" ref="C49:H49" si="24">C46*$B$10</f>
+        <v>21840</v>
+      </c>
+      <c r="D49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="E49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="F49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="G49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="H49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
       <c r="I49" s="92">
-        <f>I48/2</f>
+        <f>(I46+I47)*$B$10</f>
+        <v>2520</v>
+      </c>
+      <c r="J49" s="92">
+        <f>J46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="K49" s="92">
+        <f>K46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="L49" s="92">
+        <f>L46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="M49" s="92">
+        <f>M46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="N49" s="92">
+        <f>N46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="O49" s="92">
+        <f>(O46+O47)*$B$10</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C50" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="108">
+        <f>D46-D48-D49</f>
+        <v>21560</v>
+      </c>
+      <c r="E50" s="108">
+        <f t="shared" ref="E50" si="25">E46-E48-E49</f>
+        <v>21560</v>
+      </c>
+      <c r="F50" s="108">
+        <f t="shared" ref="F50" si="26">F46-F48-F49</f>
+        <v>21560</v>
+      </c>
+      <c r="G50" s="108">
+        <f t="shared" ref="G50" si="27">G46-G48-G49</f>
+        <v>21560</v>
+      </c>
+      <c r="H50" s="108">
+        <f t="shared" ref="H50" si="28">H46-H48-H49</f>
+        <v>21560</v>
+      </c>
+      <c r="I50" s="108">
+        <f>I46+I47-I48-I49</f>
+        <v>32340</v>
+      </c>
+      <c r="J50" s="108">
+        <f t="shared" ref="J50:N50" si="29">J46-J48-J49</f>
+        <v>21560</v>
+      </c>
+      <c r="K50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="L50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="M50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="N50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="O50" s="108">
+        <f>O46+O47-O48-O49</f>
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="203"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="203"/>
+      <c r="K54" s="203"/>
+      <c r="L54" s="203"/>
+      <c r="M54" s="203"/>
+      <c r="N54" s="203"/>
+      <c r="O54" s="203"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="145"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="146">
+        <v>1</v>
+      </c>
+      <c r="E55" s="146">
+        <v>2</v>
+      </c>
+      <c r="F55" s="146">
+        <v>3</v>
+      </c>
+      <c r="G55" s="146">
+        <v>4</v>
+      </c>
+      <c r="H55" s="146">
+        <v>5</v>
+      </c>
+      <c r="I55" s="146">
+        <v>6</v>
+      </c>
+      <c r="J55" s="146">
+        <v>7</v>
+      </c>
+      <c r="K55" s="146">
+        <v>8</v>
+      </c>
+      <c r="L55" s="146">
+        <v>9</v>
+      </c>
+      <c r="M55" s="146">
+        <v>10</v>
+      </c>
+      <c r="N55" s="146">
+        <v>11</v>
+      </c>
+      <c r="O55" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="107">
+        <f>SUM(D56:O57)</f>
+        <v>390000</v>
+      </c>
+      <c r="D56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="E56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="F56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="H56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="I56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="J56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="K56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="L56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="M56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="N56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="O56" s="92">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="92">
+        <f>I56/2</f>
         <v>15000</v>
       </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="92">
-        <f>O48/2</f>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="92">
+        <f>O56/2</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="104">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="104">
         <v>0.17</v>
       </c>
-      <c r="C50" s="92">
-        <f t="shared" ref="C50:H50" si="26">C48*$B$9</f>
+      <c r="C58" s="92">
+        <f t="shared" ref="C58:H58" si="30">C56*$B$9</f>
         <v>66300</v>
       </c>
-      <c r="D50" s="92">
-        <f t="shared" si="26"/>
+      <c r="D58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="E50" s="92">
-        <f t="shared" si="26"/>
+      <c r="E58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="F50" s="92">
-        <f t="shared" si="26"/>
+      <c r="F58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="G50" s="92">
-        <f t="shared" si="26"/>
+      <c r="G58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="H50" s="92">
-        <f t="shared" si="26"/>
+      <c r="H58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="I50" s="92">
-        <f>(I48+I49)*$B$9</f>
+      <c r="I58" s="92">
+        <f>(I56+I57)*$B$9</f>
         <v>7650.0000000000009</v>
       </c>
-      <c r="J50" s="92">
-        <f>J48*$B$9</f>
+      <c r="J58" s="92">
+        <f>J56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="K50" s="92">
-        <f>K48*$B$9</f>
+      <c r="K58" s="92">
+        <f>K56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="L50" s="92">
-        <f>L48*$B$9</f>
+      <c r="L58" s="92">
+        <f>L56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="M50" s="92">
-        <f>M48*$B$9</f>
+      <c r="M58" s="92">
+        <f>M56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="N50" s="92">
-        <f>N48*$B$9</f>
+      <c r="N58" s="92">
+        <f>N56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="O50" s="92">
-        <f>(O48+O49)*$B$9</f>
+      <c r="O58" s="92">
+        <f>(O56+O57)*$B$9</f>
         <v>7650.0000000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C51" s="92">
-        <f t="shared" ref="C51:H51" si="27">C48*$B$10</f>
-        <v>23400</v>
-      </c>
-      <c r="D51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="E51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="F51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="G51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="H51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="I51" s="92">
-        <f>(I48+I49)*$B$10</f>
-        <v>2700</v>
-      </c>
-      <c r="J51" s="92">
-        <f>J48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="K51" s="92">
-        <f>K48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="L51" s="92">
-        <f>L48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="M51" s="92">
-        <f>M48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="N51" s="92">
-        <f>N48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="O51" s="92">
-        <f>(O48+O49)*$B$10</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C52" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="108">
-        <f>D48-D50-D51</f>
-        <v>23100</v>
-      </c>
-      <c r="E52" s="108">
-        <f t="shared" ref="E52" si="28">E48-E50-E51</f>
-        <v>23100</v>
-      </c>
-      <c r="F52" s="108">
-        <f t="shared" ref="F52" si="29">F48-F50-F51</f>
-        <v>23100</v>
-      </c>
-      <c r="G52" s="108">
-        <f t="shared" ref="G52" si="30">G48-G50-G51</f>
-        <v>23100</v>
-      </c>
-      <c r="H52" s="108">
-        <f t="shared" ref="H52" si="31">H48-H50-H51</f>
-        <v>23100</v>
-      </c>
-      <c r="I52" s="108">
-        <f>I48+I49-I50-I51</f>
-        <v>34650</v>
-      </c>
-      <c r="J52" s="108">
-        <f t="shared" ref="J52:N52" si="32">J48-J50-J51</f>
-        <v>23100</v>
-      </c>
-      <c r="K52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="L52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="M52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="N52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="O52" s="108">
-        <f>O48+O49-O50-O51</f>
-        <v>34650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="206" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="206"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="206"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="206"/>
-      <c r="N56" s="206"/>
-      <c r="O56" s="206"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C57" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="87">
-        <v>1</v>
-      </c>
-      <c r="E57" s="87">
-        <v>2</v>
-      </c>
-      <c r="F57" s="87">
-        <v>3</v>
-      </c>
-      <c r="G57" s="87">
-        <v>4</v>
-      </c>
-      <c r="H57" s="87">
-        <v>5</v>
-      </c>
-      <c r="I57" s="87">
-        <v>6</v>
-      </c>
-      <c r="J57" s="87">
-        <v>7</v>
-      </c>
-      <c r="K57" s="87">
-        <v>8</v>
-      </c>
-      <c r="L57" s="87">
-        <v>9</v>
-      </c>
-      <c r="M57" s="87">
-        <v>10</v>
-      </c>
-      <c r="N57" s="87">
-        <v>11</v>
-      </c>
-      <c r="O57" s="87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="107">
-        <f>SUM(D58:O59)</f>
-        <v>377000</v>
-      </c>
-      <c r="D58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="E58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="F58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="G58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="H58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="I58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="J58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="K58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="L58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="M58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="N58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="O58" s="92">
-        <v>29000</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
+      <c r="B59" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C59" s="92">
+        <f t="shared" ref="C59:H59" si="31">C56*$B$10</f>
+        <v>23400</v>
+      </c>
+      <c r="D59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="E59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="F59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="G59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="H59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
       <c r="I59" s="92">
-        <f>I58/2</f>
+        <f>(I56+I57)*$B$10</f>
+        <v>2700</v>
+      </c>
+      <c r="J59" s="92">
+        <f>J56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="K59" s="92">
+        <f>K56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="L59" s="92">
+        <f>L56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="M59" s="92">
+        <f>M56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="N59" s="92">
+        <f>N56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="O59" s="92">
+        <f>(O56+O57)*$B$10</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="108">
+        <f>D56-D58-D59</f>
+        <v>23100</v>
+      </c>
+      <c r="E60" s="108">
+        <f t="shared" ref="E60" si="32">E56-E58-E59</f>
+        <v>23100</v>
+      </c>
+      <c r="F60" s="108">
+        <f t="shared" ref="F60" si="33">F56-F58-F59</f>
+        <v>23100</v>
+      </c>
+      <c r="G60" s="108">
+        <f t="shared" ref="G60" si="34">G56-G58-G59</f>
+        <v>23100</v>
+      </c>
+      <c r="H60" s="108">
+        <f t="shared" ref="H60" si="35">H56-H58-H59</f>
+        <v>23100</v>
+      </c>
+      <c r="I60" s="108">
+        <f>I56+I57-I58-I59</f>
+        <v>34650</v>
+      </c>
+      <c r="J60" s="108">
+        <f t="shared" ref="J60:N60" si="36">J56-J58-J59</f>
+        <v>23100</v>
+      </c>
+      <c r="K60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="L60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="M60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="N60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="O60" s="108">
+        <f>O56+O57-O58-O59</f>
+        <v>34650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="207" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="207"/>
+      <c r="F64" s="207"/>
+      <c r="G64" s="207"/>
+      <c r="H64" s="207"/>
+      <c r="I64" s="207"/>
+      <c r="J64" s="207"/>
+      <c r="K64" s="207"/>
+      <c r="L64" s="207"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C65" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="87">
+        <v>1</v>
+      </c>
+      <c r="E65" s="87">
+        <v>2</v>
+      </c>
+      <c r="F65" s="87">
+        <v>3</v>
+      </c>
+      <c r="G65" s="87">
+        <v>4</v>
+      </c>
+      <c r="H65" s="87">
+        <v>5</v>
+      </c>
+      <c r="I65" s="87">
+        <v>6</v>
+      </c>
+      <c r="J65" s="87">
+        <v>7</v>
+      </c>
+      <c r="K65" s="87">
+        <v>8</v>
+      </c>
+      <c r="L65" s="87">
+        <v>9</v>
+      </c>
+      <c r="M65" s="87">
+        <v>10</v>
+      </c>
+      <c r="N65" s="87">
+        <v>11</v>
+      </c>
+      <c r="O65" s="87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="87"/>
+      <c r="B66" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="107">
+        <f>SUM(D66:O67)</f>
+        <v>377000</v>
+      </c>
+      <c r="D66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="E66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="F66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="G66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="H66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="I66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="J66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="K66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="L66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="M66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="N66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="O66" s="92">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="92">
+        <f>I66/2</f>
         <v>14500</v>
       </c>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="92">
-        <f>O58/2</f>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="92">
+        <f>O66/2</f>
         <v>14500</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="87" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C68" s="92">
+        <f t="shared" ref="C68:H68" si="37">C66*$B$9</f>
+        <v>64090.000000000007</v>
+      </c>
+      <c r="D68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="E68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="F68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="G68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="H68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="I68" s="92">
+        <f>(I66+I67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+      <c r="J68" s="92">
+        <f>J66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="K68" s="92">
+        <f>K66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="L68" s="92">
+        <f>L66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="M68" s="92">
+        <f>M66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="N68" s="92">
+        <f>N66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="O68" s="92">
+        <f>(O66+O67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C69" s="92">
+        <f t="shared" ref="C69:H69" si="38">C66*$B$10</f>
+        <v>22620</v>
+      </c>
+      <c r="D69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="E69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="F69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="G69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="H69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="I69" s="92">
+        <f>(I66+I67)*$B$10</f>
+        <v>2610</v>
+      </c>
+      <c r="J69" s="92">
+        <f>J66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="K69" s="92">
+        <f>K66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="L69" s="92">
+        <f>L66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="M69" s="92">
+        <f>M66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="N69" s="92">
+        <f>N66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="O69" s="92">
+        <f>(O66+O67)*$B$10</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C70" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="108">
+        <f>D66-D68-D69</f>
+        <v>22330</v>
+      </c>
+      <c r="E70" s="108">
+        <f t="shared" ref="E70" si="39">E66-E68-E69</f>
+        <v>22330</v>
+      </c>
+      <c r="F70" s="108">
+        <f t="shared" ref="F70" si="40">F66-F68-F69</f>
+        <v>22330</v>
+      </c>
+      <c r="G70" s="108">
+        <f t="shared" ref="G70" si="41">G66-G68-G69</f>
+        <v>22330</v>
+      </c>
+      <c r="H70" s="108">
+        <f t="shared" ref="H70" si="42">H66-H68-H69</f>
+        <v>22330</v>
+      </c>
+      <c r="I70" s="108">
+        <f>I66+I67-I68-I69</f>
+        <v>33495</v>
+      </c>
+      <c r="J70" s="108">
+        <f t="shared" ref="J70:N70" si="43">J66-J68-J69</f>
+        <v>22330</v>
+      </c>
+      <c r="K70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="L70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="M70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="N70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="O70" s="108">
+        <f>O66+O67-O68-O69</f>
+        <v>33495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="162"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="162"/>
+      <c r="M73" s="162"/>
+      <c r="N73" s="162"/>
+      <c r="O73" s="162"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="104">
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
+      <c r="J76" s="203"/>
+      <c r="K76" s="203"/>
+      <c r="L76" s="203"/>
+      <c r="M76" s="203"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="203"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="145"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="146">
+        <v>1</v>
+      </c>
+      <c r="E77" s="146">
+        <v>2</v>
+      </c>
+      <c r="F77" s="146">
+        <v>3</v>
+      </c>
+      <c r="G77" s="146">
+        <v>4</v>
+      </c>
+      <c r="H77" s="146">
+        <v>5</v>
+      </c>
+      <c r="I77" s="146">
+        <v>6</v>
+      </c>
+      <c r="J77" s="146">
+        <v>7</v>
+      </c>
+      <c r="K77" s="146">
+        <v>8</v>
+      </c>
+      <c r="L77" s="146">
+        <v>9</v>
+      </c>
+      <c r="M77" s="146">
+        <v>10</v>
+      </c>
+      <c r="N77" s="146">
+        <v>11</v>
+      </c>
+      <c r="O77" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="87"/>
+      <c r="B78" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="107">
+        <f>SUM(D78:O79)</f>
+        <v>416000</v>
+      </c>
+      <c r="D78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="E78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="F78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="G78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="H78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="I78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="J78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="K78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="L78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="M78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="N78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="O78" s="92">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="92">
+        <f>I78/2</f>
+        <v>16000</v>
+      </c>
+      <c r="J79" s="87"/>
+      <c r="K79" s="87"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="N79" s="87"/>
+      <c r="O79" s="92">
+        <f>O78/2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="104">
         <v>0.17</v>
       </c>
-      <c r="C60" s="92">
-        <f t="shared" ref="C60:H60" si="33">C58*$B$9</f>
-        <v>64090.000000000007</v>
-      </c>
-      <c r="D60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="E60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="F60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="G60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="H60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="I60" s="92">
-        <f>(I58+I59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-      <c r="J60" s="92">
-        <f>J58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="K60" s="92">
-        <f>K58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="L60" s="92">
-        <f>L58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="M60" s="92">
-        <f>M58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="N60" s="92">
-        <f>N58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="O60" s="92">
-        <f>(O58+O59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C61" s="92">
-        <f t="shared" ref="C61:H61" si="34">C58*$B$10</f>
-        <v>22620</v>
-      </c>
-      <c r="D61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="E61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="F61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="G61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="H61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="I61" s="92">
-        <f>(I58+I59)*$B$10</f>
-        <v>2610</v>
-      </c>
-      <c r="J61" s="92">
-        <f>J58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="K61" s="92">
-        <f>K58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="L61" s="92">
-        <f>L58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="M61" s="92">
-        <f>M58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="N61" s="92">
-        <f>N58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="O61" s="92">
-        <f>(O58+O59)*$B$10</f>
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C62" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="108">
-        <f>D58-D60-D61</f>
-        <v>22330</v>
-      </c>
-      <c r="E62" s="108">
-        <f t="shared" ref="E62" si="35">E58-E60-E61</f>
-        <v>22330</v>
-      </c>
-      <c r="F62" s="108">
-        <f t="shared" ref="F62" si="36">F58-F60-F61</f>
-        <v>22330</v>
-      </c>
-      <c r="G62" s="108">
-        <f t="shared" ref="G62" si="37">G58-G60-G61</f>
-        <v>22330</v>
-      </c>
-      <c r="H62" s="108">
-        <f t="shared" ref="H62" si="38">H58-H60-H61</f>
-        <v>22330</v>
-      </c>
-      <c r="I62" s="108">
-        <f>I58+I59-I60-I61</f>
-        <v>33495</v>
-      </c>
-      <c r="J62" s="108">
-        <f t="shared" ref="J62:N62" si="39">J58-J60-J61</f>
-        <v>22330</v>
-      </c>
-      <c r="K62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="L62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="M62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="N62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="O62" s="108">
-        <f>O58+O59-O60-O61</f>
-        <v>33495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="161" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="162"/>
-      <c r="C65" s="162"/>
-      <c r="D65" s="162"/>
-      <c r="E65" s="162"/>
-      <c r="F65" s="162"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="162"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="202"/>
-      <c r="F68" s="202"/>
-      <c r="G68" s="202"/>
-      <c r="H68" s="202"/>
-      <c r="I68" s="202"/>
-      <c r="J68" s="202"/>
-      <c r="K68" s="202"/>
-      <c r="L68" s="202"/>
-      <c r="M68" s="202"/>
-      <c r="N68" s="202"/>
-      <c r="O68" s="202"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="145"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="146">
-        <v>1</v>
-      </c>
-      <c r="E69" s="146">
-        <v>2</v>
-      </c>
-      <c r="F69" s="146">
-        <v>3</v>
-      </c>
-      <c r="G69" s="146">
-        <v>4</v>
-      </c>
-      <c r="H69" s="146">
-        <v>5</v>
-      </c>
-      <c r="I69" s="146">
-        <v>6</v>
-      </c>
-      <c r="J69" s="146">
-        <v>7</v>
-      </c>
-      <c r="K69" s="146">
-        <v>8</v>
-      </c>
-      <c r="L69" s="146">
-        <v>9</v>
-      </c>
-      <c r="M69" s="146">
-        <v>10</v>
-      </c>
-      <c r="N69" s="146">
-        <v>11</v>
-      </c>
-      <c r="O69" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
-      <c r="B70" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="107">
-        <f>SUM(D70:O71)</f>
-        <v>416000</v>
-      </c>
-      <c r="D70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="E70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="F70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="G70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="H70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="I70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="J70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="K70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="L70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="M70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="N70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="O70" s="92">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="92">
-        <f>I70/2</f>
-        <v>16000</v>
-      </c>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="92">
-        <f>O70/2</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="104">
-        <v>0.17</v>
-      </c>
-      <c r="C72" s="92">
-        <f t="shared" ref="C72:H72" si="40">C70*$B$9</f>
+      <c r="C80" s="92">
+        <f t="shared" ref="C80:H80" si="44">C78*$B$9</f>
         <v>70720</v>
       </c>
-      <c r="D72" s="92">
-        <f t="shared" si="40"/>
+      <c r="D80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="E72" s="92">
-        <f t="shared" si="40"/>
+      <c r="E80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="F72" s="92">
-        <f t="shared" si="40"/>
+      <c r="F80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="G72" s="92">
-        <f t="shared" si="40"/>
+      <c r="G80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="H72" s="92">
-        <f t="shared" si="40"/>
+      <c r="H80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="I72" s="92">
-        <f>(I70+I71)*$B$9</f>
+      <c r="I80" s="92">
+        <f>(I78+I79)*$B$9</f>
         <v>8160.0000000000009</v>
       </c>
-      <c r="J72" s="92">
-        <f>J70*$B$9</f>
+      <c r="J80" s="92">
+        <f>J78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="K72" s="92">
-        <f>K70*$B$9</f>
+      <c r="K80" s="92">
+        <f>K78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="L72" s="92">
-        <f>L70*$B$9</f>
+      <c r="L80" s="92">
+        <f>L78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="M72" s="92">
-        <f>M70*$B$9</f>
+      <c r="M80" s="92">
+        <f>M78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="N72" s="92">
-        <f>N70*$B$9</f>
+      <c r="N80" s="92">
+        <f>N78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="O72" s="92">
-        <f>(O70+O71)*$B$9</f>
+      <c r="O80" s="92">
+        <f>(O78+O79)*$B$9</f>
         <v>8160.0000000000009</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C73" s="92">
-        <f t="shared" ref="C73:H73" si="41">C70*$B$10</f>
-        <v>24960</v>
-      </c>
-      <c r="D73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="E73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="F73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="G73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="H73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="I73" s="92">
-        <f>(I70+I71)*$B$10</f>
-        <v>2880</v>
-      </c>
-      <c r="J73" s="92">
-        <f>J70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="K73" s="92">
-        <f>K70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="L73" s="92">
-        <f>L70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="M73" s="92">
-        <f>M70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="N73" s="92">
-        <f>N70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="O73" s="92">
-        <f>(O70+O71)*$B$10</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C74" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="108">
-        <f>D70-D72-D73</f>
-        <v>24640</v>
-      </c>
-      <c r="E74" s="108">
-        <f t="shared" ref="E74" si="42">E70-E72-E73</f>
-        <v>24640</v>
-      </c>
-      <c r="F74" s="108">
-        <f t="shared" ref="F74" si="43">F70-F72-F73</f>
-        <v>24640</v>
-      </c>
-      <c r="G74" s="108">
-        <f t="shared" ref="G74" si="44">G70-G72-G73</f>
-        <v>24640</v>
-      </c>
-      <c r="H74" s="108">
-        <f t="shared" ref="H74" si="45">H70-H72-H73</f>
-        <v>24640</v>
-      </c>
-      <c r="I74" s="108">
-        <f>I70+I71-I72-I73</f>
-        <v>36960</v>
-      </c>
-      <c r="J74" s="108">
-        <f t="shared" ref="J74:N74" si="46">J70-J72-J73</f>
-        <v>24640</v>
-      </c>
-      <c r="K74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="L74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="M74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="N74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="O74" s="108">
-        <f>O70+O71-O72-O73</f>
-        <v>36960</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="202"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="145"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="146">
-        <v>1</v>
-      </c>
-      <c r="E79" s="146">
-        <v>2</v>
-      </c>
-      <c r="F79" s="146">
-        <v>3</v>
-      </c>
-      <c r="G79" s="146">
-        <v>4</v>
-      </c>
-      <c r="H79" s="146">
-        <v>5</v>
-      </c>
-      <c r="I79" s="146">
-        <v>6</v>
-      </c>
-      <c r="J79" s="146">
-        <v>7</v>
-      </c>
-      <c r="K79" s="146">
-        <v>8</v>
-      </c>
-      <c r="L79" s="146">
-        <v>9</v>
-      </c>
-      <c r="M79" s="146">
-        <v>10</v>
-      </c>
-      <c r="N79" s="146">
-        <v>11</v>
-      </c>
-      <c r="O79" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="87"/>
-      <c r="B80" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="107">
-        <f>SUM(D80:O81)</f>
-        <v>403000</v>
-      </c>
-      <c r="D80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="E80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="F80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="G80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="H80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="I80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="J80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="K80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="L80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="M80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="N80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="O80" s="92">
-        <v>31000</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
+      <c r="B81" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C81" s="92">
+        <f t="shared" ref="C81:H81" si="45">C78*$B$10</f>
+        <v>24960</v>
+      </c>
+      <c r="D81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="E81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="F81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="G81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="H81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
       <c r="I81" s="92">
-        <f>I80/2</f>
+        <f>(I78+I79)*$B$10</f>
+        <v>2880</v>
+      </c>
+      <c r="J81" s="92">
+        <f>J78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="K81" s="92">
+        <f>K78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="L81" s="92">
+        <f>L78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="M81" s="92">
+        <f>M78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="N81" s="92">
+        <f>N78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="O81" s="92">
+        <f>(O78+O79)*$B$10</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C82" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="108">
+        <f>D78-D80-D81</f>
+        <v>24640</v>
+      </c>
+      <c r="E82" s="108">
+        <f t="shared" ref="E82" si="46">E78-E80-E81</f>
+        <v>24640</v>
+      </c>
+      <c r="F82" s="108">
+        <f t="shared" ref="F82" si="47">F78-F80-F81</f>
+        <v>24640</v>
+      </c>
+      <c r="G82" s="108">
+        <f t="shared" ref="G82" si="48">G78-G80-G81</f>
+        <v>24640</v>
+      </c>
+      <c r="H82" s="108">
+        <f t="shared" ref="H82" si="49">H78-H80-H81</f>
+        <v>24640</v>
+      </c>
+      <c r="I82" s="108">
+        <f>I78+I79-I80-I81</f>
+        <v>36960</v>
+      </c>
+      <c r="J82" s="108">
+        <f t="shared" ref="J82:N82" si="50">J78-J80-J81</f>
+        <v>24640</v>
+      </c>
+      <c r="K82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="L82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="M82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="N82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="O82" s="108">
+        <f>O78+O79-O80-O81</f>
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="145"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
+      <c r="G86" s="203"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="203"/>
+      <c r="J86" s="203"/>
+      <c r="K86" s="203"/>
+      <c r="L86" s="203"/>
+      <c r="M86" s="203"/>
+      <c r="N86" s="203"/>
+      <c r="O86" s="203"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="145"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="146">
+        <v>1</v>
+      </c>
+      <c r="E87" s="146">
+        <v>2</v>
+      </c>
+      <c r="F87" s="146">
+        <v>3</v>
+      </c>
+      <c r="G87" s="146">
+        <v>4</v>
+      </c>
+      <c r="H87" s="146">
+        <v>5</v>
+      </c>
+      <c r="I87" s="146">
+        <v>6</v>
+      </c>
+      <c r="J87" s="146">
+        <v>7</v>
+      </c>
+      <c r="K87" s="146">
+        <v>8</v>
+      </c>
+      <c r="L87" s="146">
+        <v>9</v>
+      </c>
+      <c r="M87" s="146">
+        <v>10</v>
+      </c>
+      <c r="N87" s="146">
+        <v>11</v>
+      </c>
+      <c r="O87" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="87"/>
+      <c r="B88" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="107">
+        <f>SUM(D88:O89)</f>
+        <v>403000</v>
+      </c>
+      <c r="D88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="E88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="F88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="G88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="H88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="I88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="J88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="K88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="L88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="M88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="N88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="O88" s="92">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="92">
+        <f>I88/2</f>
         <v>15500</v>
       </c>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="92">
-        <f>O80/2</f>
+      <c r="J89" s="87"/>
+      <c r="K89" s="87"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="87"/>
+      <c r="N89" s="87"/>
+      <c r="O89" s="92">
+        <f>O88/2</f>
         <v>15500</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="104">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="104">
         <v>0.17</v>
       </c>
-      <c r="C82" s="92">
-        <f t="shared" ref="C82:H82" si="47">C80*$B$9</f>
+      <c r="C90" s="92">
+        <f t="shared" ref="C90:H90" si="51">C88*$B$9</f>
         <v>68510</v>
       </c>
-      <c r="D82" s="92">
-        <f t="shared" si="47"/>
+      <c r="D90" s="92">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="E82" s="92">
-        <f t="shared" si="47"/>
+      <c r="E90" s="92">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="F82" s="92">
-        <f t="shared" si="47"/>
+      <c r="F90" s="92">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="G82" s="92">
-        <f t="shared" si="47"/>
+      <c r="G90" s="92">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="H82" s="92">
-        <f t="shared" si="47"/>
+      <c r="H90" s="92">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="I82" s="92">
-        <f>(I80+I81)*$B$9</f>
+      <c r="I90" s="92">
+        <f>(I88+I89)*$B$9</f>
         <v>7905.0000000000009</v>
       </c>
-      <c r="J82" s="92">
-        <f>J80*$B$9</f>
+      <c r="J90" s="92">
+        <f>J88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="K82" s="92">
-        <f>K80*$B$9</f>
+      <c r="K90" s="92">
+        <f>K88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="L82" s="92">
-        <f>L80*$B$9</f>
+      <c r="L90" s="92">
+        <f>L88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="M82" s="92">
-        <f>M80*$B$9</f>
+      <c r="M90" s="92">
+        <f>M88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="N82" s="92">
-        <f>N80*$B$9</f>
+      <c r="N90" s="92">
+        <f>N88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="O82" s="92">
-        <f>(O80+O81)*$B$9</f>
+      <c r="O90" s="92">
+        <f>(O88+O89)*$B$9</f>
         <v>7905.0000000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="104">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="104">
         <v>0.06</v>
       </c>
-      <c r="C83" s="92">
-        <f t="shared" ref="C83:H83" si="48">C80*$B$10</f>
+      <c r="C91" s="92">
+        <f t="shared" ref="C91:H91" si="52">C88*$B$10</f>
         <v>24180</v>
       </c>
-      <c r="D83" s="92">
-        <f t="shared" si="48"/>
+      <c r="D91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="E83" s="92">
-        <f t="shared" si="48"/>
+      <c r="E91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="F83" s="92">
-        <f t="shared" si="48"/>
+      <c r="F91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="G83" s="92">
-        <f t="shared" si="48"/>
+      <c r="G91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="H83" s="92">
-        <f t="shared" si="48"/>
+      <c r="H91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="I83" s="92">
-        <f>(I80+I81)*$B$10</f>
+      <c r="I91" s="92">
+        <f>(I88+I89)*$B$10</f>
         <v>2790</v>
       </c>
-      <c r="J83" s="92">
-        <f>J80*$B$10</f>
+      <c r="J91" s="92">
+        <f>J88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="K83" s="92">
-        <f>K80*$B$10</f>
+      <c r="K91" s="92">
+        <f>K88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="L83" s="92">
-        <f>L80*$B$10</f>
+      <c r="L91" s="92">
+        <f>L88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="M83" s="92">
-        <f>M80*$B$10</f>
+      <c r="M91" s="92">
+        <f>M88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="N83" s="92">
-        <f>N80*$B$10</f>
+      <c r="N91" s="92">
+        <f>N88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="O83" s="92">
-        <f>(O80+O81)*$B$10</f>
+      <c r="O91" s="92">
+        <f>(O88+O89)*$B$10</f>
         <v>2790</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C84" s="77" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C92" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="108">
+        <f>D88-D90-D91</f>
+        <v>23870</v>
+      </c>
+      <c r="E92" s="108">
+        <f t="shared" ref="E92" si="53">E88-E90-E91</f>
+        <v>23870</v>
+      </c>
+      <c r="F92" s="108">
+        <f t="shared" ref="F92" si="54">F88-F90-F91</f>
+        <v>23870</v>
+      </c>
+      <c r="G92" s="108">
+        <f t="shared" ref="G92" si="55">G88-G90-G91</f>
+        <v>23870</v>
+      </c>
+      <c r="H92" s="108">
+        <f t="shared" ref="H92" si="56">H88-H90-H91</f>
+        <v>23870</v>
+      </c>
+      <c r="I92" s="108">
+        <f>I88+I89-I90-I91</f>
+        <v>35805</v>
+      </c>
+      <c r="J92" s="108">
+        <f t="shared" ref="J92:N92" si="57">J88-J90-J91</f>
+        <v>23870</v>
+      </c>
+      <c r="K92" s="108">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="L92" s="108">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="M92" s="108">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="N92" s="108">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="O92" s="108">
+        <f>O88+O89-O90-O91</f>
+        <v>35805</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="146"/>
+      <c r="D98" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="108">
-        <f>D80-D82-D83</f>
-        <v>23870</v>
-      </c>
-      <c r="E84" s="108">
-        <f t="shared" ref="E84" si="49">E80-E82-E83</f>
-        <v>23870</v>
-      </c>
-      <c r="F84" s="108">
-        <f t="shared" ref="F84" si="50">F80-F82-F83</f>
-        <v>23870</v>
-      </c>
-      <c r="G84" s="108">
-        <f t="shared" ref="G84" si="51">G80-G82-G83</f>
-        <v>23870</v>
-      </c>
-      <c r="H84" s="108">
-        <f t="shared" ref="H84" si="52">H80-H82-H83</f>
-        <v>23870</v>
-      </c>
-      <c r="I84" s="108">
-        <f>I80+I81-I82-I83</f>
-        <v>35805</v>
-      </c>
-      <c r="J84" s="108">
-        <f t="shared" ref="J84:N84" si="53">J80-J82-J83</f>
-        <v>23870</v>
-      </c>
-      <c r="K84" s="108">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="L84" s="108">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="M84" s="108">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="N84" s="108">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="O84" s="108">
-        <f>O80+O81-O82-O83</f>
-        <v>35805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C90" s="146"/>
-      <c r="D90" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="159" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C91" s="203" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="92">
+      <c r="D99" s="92">
         <f>+C26+C17+C7</f>
         <v>1560000</v>
       </c>
-      <c r="E91" s="92">
-        <f>+D91+C38+C48+C58</f>
+      <c r="E99" s="92">
+        <f>+D99+C46+C56+C66</f>
         <v>2691000</v>
       </c>
-      <c r="F91" s="92">
-        <f>+E91+C70+C80</f>
+      <c r="F99" s="92">
+        <f>+E99+C78+C88</f>
         <v>3510000</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C92" s="204"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C93" s="204"/>
-      <c r="D93" s="87" t="s">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="205"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="205"/>
+      <c r="D101" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="87" t="s">
+      <c r="E101" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="87" t="s">
+      <c r="F101" s="87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C94" s="205"/>
-      <c r="D94" s="92">
-        <f>D91/12</f>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="206"/>
+      <c r="D102" s="92">
+        <f>D99/12</f>
         <v>130000</v>
       </c>
-      <c r="E94" s="92">
-        <f>E91/12</f>
+      <c r="E102" s="92">
+        <f>E99/12</f>
         <v>224250</v>
       </c>
-      <c r="F94" s="92">
-        <f>F91/12</f>
+      <c r="F102" s="92">
+        <f>F99/12</f>
         <v>292500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D68:O68"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="C91:C94"/>
+  <mergeCells count="10">
+    <mergeCell ref="D76:O76"/>
+    <mergeCell ref="D86:O86"/>
+    <mergeCell ref="C99:C102"/>
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="D15:O15"/>
     <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="D56:O56"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D54:O54"/>
+    <mergeCell ref="D64:O64"/>
+    <mergeCell ref="D33:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Gomez Marcos - Escenario de Perdida - contingencia.xlsx
+++ b/Gomez Marcos - Escenario de Perdida - contingencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mercado Meta" sheetId="4" r:id="rId1"/>
@@ -1732,6 +1732,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1840,17 +1848,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1858,6 +1855,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2091,7 +2091,7 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,8 +2111,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="42870272"/>
-        <c:axId val="59836672"/>
+        <c:axId val="132299776"/>
+        <c:axId val="107144320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2257,13 +2257,13 @@
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1440000</c:v>
+                  <c:v>2160000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2880000</c:v>
+                  <c:v>4320000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5640000</c:v>
+                  <c:v>8640000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,11 +2285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42880512"/>
-        <c:axId val="59837248"/>
+        <c:axId val="132497408"/>
+        <c:axId val="107144896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42870272"/>
+        <c:axId val="132299776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2332,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59836672"/>
+        <c:crossAx val="107144320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2340,7 +2340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59836672"/>
+        <c:axId val="107144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,12 +2391,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42870272"/>
+        <c:crossAx val="132299776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59837248"/>
+        <c:axId val="107144896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,12 +2433,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42880512"/>
+        <c:crossAx val="132497408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="42880512"/>
+        <c:axId val="132497408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59837248"/>
+        <c:crossAx val="107144896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,11 +2828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45082112"/>
-        <c:axId val="59839552"/>
+        <c:axId val="132499456"/>
+        <c:axId val="107147200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45082112"/>
+        <c:axId val="132499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2891,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59839552"/>
+        <c:crossAx val="107147200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2899,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59839552"/>
+        <c:axId val="107147200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,7 +2958,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45082112"/>
+        <c:crossAx val="132499456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3406,11 +3406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45083136"/>
-        <c:axId val="59841856"/>
+        <c:axId val="59315712"/>
+        <c:axId val="107149504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45083136"/>
+        <c:axId val="59315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3469,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59841856"/>
+        <c:crossAx val="107149504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3477,7 +3477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59841856"/>
+        <c:axId val="107149504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3536,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45083136"/>
+        <c:crossAx val="59315712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3804,40 +3804,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>37.6</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.900000000000006</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.2</c:v>
+                  <c:v>28.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.3</c:v>
+                  <c:v>43.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.6</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.900000000000006</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.6</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.6</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.3</c:v>
+                  <c:v>43.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.7</c:v>
+                  <c:v>52.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.050000000000004</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,11 +3984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45083648"/>
-        <c:axId val="45631168"/>
+        <c:axId val="132251648"/>
+        <c:axId val="133440064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45083648"/>
+        <c:axId val="132251648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +4047,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45631168"/>
+        <c:crossAx val="133440064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4055,7 +4055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45631168"/>
+        <c:axId val="133440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4114,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45083648"/>
+        <c:crossAx val="132251648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4783,64 +4783,64 @@
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36000</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84000</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96000</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132000</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144000</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156000</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168000</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192000</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>204000</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>216000</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>228000</c:v>
+                  <c:v>342000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>240000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4862,11 +4862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45080576"/>
-        <c:axId val="45633472"/>
+        <c:axId val="132252160"/>
+        <c:axId val="133442368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45080576"/>
+        <c:axId val="132252160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,7 +4930,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45633472"/>
+        <c:crossAx val="133442368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4938,7 +4938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45633472"/>
+        <c:axId val="133442368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4997,7 +4997,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45080576"/>
+        <c:crossAx val="132252160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8789,7 +8789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8800,7 +8800,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8837,7 +8837,7 @@
         <v>240</v>
       </c>
       <c r="D5" s="24">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8846,15 +8846,15 @@
       </c>
       <c r="B6" s="75">
         <f>E16*B5</f>
-        <v>1440000</v>
+        <v>2160000</v>
       </c>
       <c r="C6" s="75">
         <f>E16*C5</f>
-        <v>2880000</v>
+        <v>4320000</v>
       </c>
       <c r="D6" s="75">
         <f>E16*D5</f>
-        <v>5640000</v>
+        <v>8640000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -8880,7 +8880,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -8910,16 +8910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
-      <c r="E1" s="171" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="E1" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9114,16 +9114,16 @@
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="E13" s="171" t="s">
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="E13" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="177"/>
       <c r="H13" s="49" t="s">
         <v>144</v>
       </c>
@@ -9313,16 +9313,16 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="E25" s="171" t="s">
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="E25" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="172"/>
-      <c r="G25" s="173"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="49" t="s">
         <v>145</v>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H26" s="50">
         <f>('Mercado Meta'!D5-'Mercado Meta'!C5)/'Mercado Meta'!C5</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="G27" s="9">
         <f>G31*H3</f>
-        <v>39166.666666666664</v>
+        <v>40000</v>
       </c>
       <c r="I27" s="44"/>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="G28" s="9">
         <f>G31*H4</f>
-        <v>5875</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="G29" s="9">
         <f>G31*H5</f>
-        <v>7050</v>
+        <v>7200</v>
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="30"/>
@@ -9456,7 +9456,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="13">
         <f>(G19*H26)+G19</f>
-        <v>122591.66666666667</v>
+        <v>125200</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="G32" s="13">
         <f>G31*12</f>
-        <v>1471100</v>
+        <v>1502400</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9529,7 +9529,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9549,18 +9549,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="174" t="s">
+      <c r="D1" s="179"/>
+      <c r="E1" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="174" t="s">
+      <c r="F1" s="179"/>
+      <c r="G1" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="175"/>
+      <c r="H1" s="179"/>
       <c r="I1" s="78"/>
       <c r="K1" s="137" t="s">
         <v>19</v>
@@ -9588,7 +9588,7 @@
       <c r="F2" s="80"/>
       <c r="G2" s="79">
         <f>'Mercado Meta'!D5/12</f>
-        <v>39.166666666666664</v>
+        <v>40</v>
       </c>
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="M2" s="80">
         <f>G2</f>
-        <v>39.166666666666664</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="D3" s="85">
         <f>C3*$L$11</f>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="E3" s="84">
         <f>E2</f>
@@ -9626,15 +9626,15 @@
       </c>
       <c r="F3" s="85">
         <f>E3*$L$11</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="G3" s="84">
         <f>G2</f>
-        <v>39.166666666666664</v>
+        <v>40</v>
       </c>
       <c r="H3" s="85">
         <f>G3*$L$11</f>
-        <v>470000</v>
+        <v>720000</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="140" t="s">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="M3" s="89">
         <f>(M2-L2)/L2</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9679,17 +9679,17 @@
       <c r="C5" s="94"/>
       <c r="D5" s="95">
         <f>D3+D4</f>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="E5" s="93"/>
       <c r="F5" s="95">
         <f>F3+F4</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="G5" s="93"/>
       <c r="H5" s="95">
         <f>H3+H4</f>
-        <v>470000</v>
+        <v>720000</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="97"/>
@@ -9699,18 +9699,18 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="176" t="s">
+      <c r="D7" s="181"/>
+      <c r="E7" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="177"/>
-      <c r="G7" s="176" t="s">
+      <c r="F7" s="181"/>
+      <c r="G7" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="177"/>
+      <c r="H7" s="181"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -9729,7 +9729,7 @@
       <c r="F8" s="99"/>
       <c r="G8" s="100">
         <f>(E8*M3)+E8</f>
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="81"/>
@@ -9756,11 +9756,11 @@
       </c>
       <c r="G9" s="84">
         <f>G8</f>
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H9" s="102">
         <f>G9*$M$4</f>
-        <v>5640000</v>
+        <v>5760000</v>
       </c>
       <c r="I9" s="86"/>
     </row>
@@ -9797,14 +9797,14 @@
       <c r="G11" s="93"/>
       <c r="H11" s="95">
         <f>H9+H10</f>
-        <v>5640000</v>
+        <v>5760000</v>
       </c>
       <c r="I11" s="96"/>
       <c r="K11" s="143" t="s">
         <v>172</v>
       </c>
       <c r="L11" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -9984,51 +9984,51 @@
       </c>
       <c r="C22" s="101">
         <f t="shared" ref="C22:N22" si="1">IFERROR(C21*$L$11,0)</f>
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="D22" s="101">
         <f t="shared" si="1"/>
-        <v>28800</v>
+        <v>43200</v>
       </c>
       <c r="E22" s="101">
         <f t="shared" si="1"/>
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="F22" s="101">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>108000</v>
       </c>
       <c r="G22" s="101">
         <f t="shared" si="1"/>
-        <v>115200</v>
+        <v>172800</v>
       </c>
       <c r="H22" s="101">
         <f t="shared" si="1"/>
-        <v>172799.99999999997</v>
+        <v>259199.99999999997</v>
       </c>
       <c r="I22" s="101">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>216000</v>
       </c>
       <c r="J22" s="101">
         <f t="shared" si="1"/>
-        <v>201600</v>
+        <v>302400</v>
       </c>
       <c r="K22" s="101">
         <f t="shared" si="1"/>
-        <v>187200.00000000003</v>
+        <v>280800</v>
       </c>
       <c r="L22" s="101">
         <f t="shared" si="1"/>
-        <v>230400</v>
+        <v>345600</v>
       </c>
       <c r="M22" s="101">
         <f t="shared" si="1"/>
-        <v>216000</v>
+        <v>324000</v>
       </c>
       <c r="N22" s="101">
         <f t="shared" si="1"/>
-        <v>1440000.0000000002</v>
+        <v>2160000.0000000005</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -10236,55 +10236,55 @@
       </c>
       <c r="B33" s="101">
         <f t="shared" ref="B33:C33" si="3">IFERROR(B32*$L$11,0)</f>
-        <v>230400</v>
+        <v>345600</v>
       </c>
       <c r="C33" s="101">
         <f t="shared" si="3"/>
-        <v>259199.99999999997</v>
+        <v>388799.99999999994</v>
       </c>
       <c r="D33" s="101">
         <f t="shared" ref="D33" si="4">IFERROR(D32*$L$11,0)</f>
-        <v>172799.99999999997</v>
+        <v>259199.99999999997</v>
       </c>
       <c r="E33" s="101">
         <f t="shared" ref="E33" si="5">IFERROR(E32*$L$11,0)</f>
-        <v>201600</v>
+        <v>302400</v>
       </c>
       <c r="F33" s="101">
         <f t="shared" ref="F33" si="6">IFERROR(F32*$L$11,0)</f>
-        <v>172799.99999999997</v>
+        <v>259199.99999999997</v>
       </c>
       <c r="G33" s="101">
         <f t="shared" ref="G33" si="7">IFERROR(G32*$L$11,0)</f>
-        <v>201600</v>
+        <v>302400</v>
       </c>
       <c r="H33" s="101">
         <f t="shared" ref="H33" si="8">IFERROR(H32*$L$11,0)</f>
-        <v>172799.99999999997</v>
+        <v>259199.99999999997</v>
       </c>
       <c r="I33" s="101">
         <f t="shared" ref="I33" si="9">IFERROR(I32*$L$11,0)</f>
-        <v>259199.99999999997</v>
+        <v>388799.99999999994</v>
       </c>
       <c r="J33" s="101">
         <f t="shared" ref="J33" si="10">IFERROR(J32*$L$11,0)</f>
-        <v>230400</v>
+        <v>345600</v>
       </c>
       <c r="K33" s="101">
         <f t="shared" ref="K33" si="11">IFERROR(K32*$L$11,0)</f>
-        <v>288000</v>
+        <v>432000</v>
       </c>
       <c r="L33" s="101">
         <f t="shared" ref="L33" si="12">IFERROR(L32*$L$11,0)</f>
-        <v>345599.99999999994</v>
+        <v>518399.99999999994</v>
       </c>
       <c r="M33" s="101">
         <f t="shared" ref="M33" si="13">IFERROR(M32*$L$11,0)</f>
-        <v>345599.99999999994</v>
+        <v>518399.99999999994</v>
       </c>
       <c r="N33" s="101">
         <f t="shared" ref="N33" si="14">IFERROR(N32*$L$11,0)</f>
-        <v>2880000</v>
+        <v>4320000</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -10328,7 +10328,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="106">
         <f>G9</f>
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -10435,55 +10435,55 @@
       </c>
       <c r="B44" s="105">
         <f>$B$40*B42</f>
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="C44" s="105">
         <f t="shared" ref="C44:M44" si="15">$B$40*C42</f>
-        <v>32.900000000000006</v>
+        <v>33.6</v>
       </c>
       <c r="D44" s="105">
         <f t="shared" si="15"/>
-        <v>28.2</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="E44" s="105">
         <f t="shared" si="15"/>
-        <v>42.3</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="F44" s="105">
         <f t="shared" si="15"/>
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="G44" s="105">
         <f t="shared" si="15"/>
-        <v>35.25</v>
+        <v>36</v>
       </c>
       <c r="H44" s="105">
         <f t="shared" si="15"/>
-        <v>32.900000000000006</v>
+        <v>33.6</v>
       </c>
       <c r="I44" s="105">
         <f t="shared" si="15"/>
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="J44" s="105">
         <f t="shared" si="15"/>
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="K44" s="105">
         <f t="shared" si="15"/>
-        <v>42.3</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L44" s="105">
         <f t="shared" si="15"/>
-        <v>51.7</v>
+        <v>52.8</v>
       </c>
       <c r="M44" s="105">
         <f t="shared" si="15"/>
-        <v>54.050000000000004</v>
+        <v>55.2</v>
       </c>
       <c r="N44" s="105">
         <f>SUM(B44:M44)</f>
-        <v>470.00000000000006</v>
+        <v>479.99999999999994</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -10492,55 +10492,55 @@
       </c>
       <c r="B45" s="101">
         <f t="shared" ref="B45:N45" si="16">IFERROR(B44*$L$11,0)</f>
-        <v>451200</v>
+        <v>691200</v>
       </c>
       <c r="C45" s="101">
         <f t="shared" si="16"/>
-        <v>394800.00000000006</v>
+        <v>604800</v>
       </c>
       <c r="D45" s="101">
         <f t="shared" si="16"/>
-        <v>338400</v>
+        <v>518399.99999999994</v>
       </c>
       <c r="E45" s="101">
         <f t="shared" si="16"/>
-        <v>507599.99999999994</v>
+        <v>777599.99999999988</v>
       </c>
       <c r="F45" s="101">
         <f t="shared" si="16"/>
-        <v>451200</v>
+        <v>691200</v>
       </c>
       <c r="G45" s="101">
         <f t="shared" si="16"/>
-        <v>423000</v>
+        <v>648000</v>
       </c>
       <c r="H45" s="101">
         <f t="shared" si="16"/>
-        <v>394800.00000000006</v>
+        <v>604800</v>
       </c>
       <c r="I45" s="101">
         <f t="shared" si="16"/>
-        <v>451200</v>
+        <v>691200</v>
       </c>
       <c r="J45" s="101">
         <f t="shared" si="16"/>
-        <v>451200</v>
+        <v>691200</v>
       </c>
       <c r="K45" s="101">
         <f t="shared" si="16"/>
-        <v>507599.99999999994</v>
+        <v>777599.99999999988</v>
       </c>
       <c r="L45" s="101">
         <f t="shared" si="16"/>
-        <v>620400</v>
+        <v>950400</v>
       </c>
       <c r="M45" s="101">
         <f t="shared" si="16"/>
-        <v>648600</v>
+        <v>993600</v>
       </c>
       <c r="N45" s="101">
         <f t="shared" si="16"/>
-        <v>5640000.0000000009</v>
+        <v>8639999.9999999981</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -10601,7 +10601,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="188" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10635,7 +10635,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="185"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="123" t="s">
         <v>10</v>
       </c>
@@ -10648,7 +10648,7 @@
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="185"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="185"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="123" t="s">
         <v>11</v>
       </c>
@@ -10673,7 +10673,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="185"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="123" t="s">
         <v>5</v>
       </c>
@@ -10687,7 +10687,7 @@
       <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="185"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="123" t="s">
         <v>6</v>
       </c>
@@ -10701,11 +10701,11 @@
         <v>173</v>
       </c>
       <c r="H8" s="37">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="185"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="123" t="s">
         <v>7</v>
       </c>
@@ -10717,7 +10717,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="186"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="126" t="s">
         <v>8</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="188" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="123" t="s">
@@ -10743,7 +10743,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="185"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="123" t="s">
         <v>15</v>
       </c>
@@ -10755,7 +10755,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="186"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="129" t="s">
         <v>16</v>
       </c>
@@ -10767,10 +10767,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="188"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="132">
         <f>SUM(E4:E13)</f>
         <v>159000</v>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="185" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="114">
@@ -10833,11 +10833,11 @@
       </c>
       <c r="F19" s="116">
         <f t="shared" ref="F19:F38" si="0">B19*$H$8</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="114">
         <v>2</v>
       </c>
@@ -10855,11 +10855,11 @@
       </c>
       <c r="F20" s="116">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="114">
         <v>3</v>
       </c>
@@ -10877,11 +10877,11 @@
       </c>
       <c r="F21" s="116">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="114">
         <v>4</v>
       </c>
@@ -10899,11 +10899,11 @@
       </c>
       <c r="F22" s="116">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="114">
         <v>5</v>
       </c>
@@ -10921,11 +10921,11 @@
       </c>
       <c r="F23" s="116">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="114">
         <v>6</v>
       </c>
@@ -10943,11 +10943,11 @@
       </c>
       <c r="F24" s="116">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="114">
         <v>7</v>
       </c>
@@ -10965,11 +10965,11 @@
       </c>
       <c r="F25" s="116">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="114">
         <v>8</v>
       </c>
@@ -10987,11 +10987,11 @@
       </c>
       <c r="F26" s="116">
         <f t="shared" si="0"/>
-        <v>96000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="114">
         <v>9</v>
       </c>
@@ -11009,11 +11009,11 @@
       </c>
       <c r="F27" s="116">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="114">
         <v>10</v>
       </c>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="F28" s="116">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="114">
         <v>11</v>
       </c>
@@ -11053,11 +11053,11 @@
       </c>
       <c r="F29" s="116">
         <f t="shared" si="0"/>
-        <v>132000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="117">
         <v>12</v>
       </c>
@@ -11075,11 +11075,11 @@
       </c>
       <c r="F30" s="119">
         <f t="shared" si="0"/>
-        <v>144000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="114">
         <v>13</v>
       </c>
@@ -11097,11 +11097,11 @@
       </c>
       <c r="F31" s="116">
         <f t="shared" si="0"/>
-        <v>156000</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="183"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="114">
         <v>14</v>
       </c>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="F32" s="116">
         <f t="shared" si="0"/>
-        <v>168000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="F33" s="112">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="182" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="120">
@@ -11167,11 +11167,11 @@
       </c>
       <c r="F34" s="122">
         <f t="shared" si="0"/>
-        <v>192000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="120">
         <v>17</v>
       </c>
@@ -11189,11 +11189,11 @@
       </c>
       <c r="F35" s="122">
         <f t="shared" si="0"/>
-        <v>204000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="120">
         <v>18</v>
       </c>
@@ -11211,11 +11211,11 @@
       </c>
       <c r="F36" s="122">
         <f t="shared" si="0"/>
-        <v>216000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="120">
         <v>19</v>
       </c>
@@ -11233,11 +11233,11 @@
       </c>
       <c r="F37" s="122">
         <f t="shared" si="0"/>
-        <v>228000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="120">
         <v>20</v>
       </c>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="F38" s="122">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
@@ -11276,8 +11276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11370,7 +11370,7 @@
       </c>
       <c r="J4" s="157">
         <f t="shared" si="0"/>
-        <v>360331.38749999995</v>
+        <v>391376.38749999995</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="E5" s="58">
         <f>Mensual!H11</f>
-        <v>5640000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="E6" s="59">
         <f>Mensual!H11</f>
-        <v>5640000</v>
+        <v>5760000</v>
       </c>
       <c r="H6" s="55"/>
     </row>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="E8" s="62">
         <f>-Costos!G32</f>
-        <v>-1471100</v>
+        <v>-1502400</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="158" t="s">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="J10" s="157">
         <f t="shared" si="1"/>
-        <v>169200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="E11" s="64">
         <f>SUM(E8:E10)</f>
-        <v>-4610481.75</v>
+        <v>-4641781.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="E13" s="66">
         <f>+E6+E11</f>
-        <v>1029518.25</v>
+        <v>1118218.25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="E15" s="67">
         <f>-E13*0.35</f>
-        <v>-360331.38749999995</v>
+        <v>-391376.38749999995</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="E17" s="68">
         <f>E15+E13</f>
-        <v>669186.86250000005</v>
+        <v>726841.86250000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="E20" s="68">
         <f>SUM(E17:E19)</f>
-        <v>814808.61250000005</v>
+        <v>872463.61250000005</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="B23" s="168">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>-410692.88652290357</v>
+        <v>-376349.79254528892</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B24" s="169">
         <f>IRR(B20:E20,30)</f>
-        <v>-5.580573141207168E-2</v>
+        <v>-3.1135962394597705E-2</v>
       </c>
       <c r="G24" s="29"/>
     </row>
@@ -11748,19 +11748,19 @@
       <c r="G4" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="192"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
       <c r="F5" s="147" t="s">
         <v>140</v>
       </c>
@@ -11913,18 +11913,18 @@
       <c r="A10" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="F10" s="149" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="199"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -11996,18 +11996,18 @@
       <c r="A13" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="198"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
       <c r="F13" s="149" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="205"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -12112,18 +12112,18 @@
       <c r="A17" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
       <c r="F17" s="149" t="s">
         <v>142</v>
       </c>
       <c r="G17" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -12160,11 +12160,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="193" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="43">
         <f>SUM(D6:D18)</f>
         <v>578134</v>
@@ -12199,17 +12199,17 @@
       <c r="A24" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="172" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209" t="s">
+      <c r="D24" s="172"/>
+      <c r="E24" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="209" t="s">
+      <c r="F24" s="172" t="s">
         <v>179</v>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       <c r="A25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="210">
+      <c r="B25" s="173">
         <f>D6</f>
         <v>36000</v>
       </c>
@@ -12237,7 +12237,7 @@
       <c r="A26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="210">
+      <c r="B26" s="173">
         <f>D7</f>
         <v>30000</v>
       </c>
@@ -12257,7 +12257,7 @@
       <c r="A27" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="210">
+      <c r="B27" s="173">
         <f>D8</f>
         <v>16000</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="A28" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="210">
+      <c r="B28" s="173">
         <f>D9</f>
         <v>45000</v>
       </c>
@@ -12303,7 +12303,7 @@
       <c r="A30" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="210">
+      <c r="B30" s="173">
         <f>D11</f>
         <v>150000</v>
       </c>
@@ -12323,7 +12323,7 @@
       <c r="A31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="210">
+      <c r="B31" s="173">
         <f>D12</f>
         <v>5000</v>
       </c>
@@ -12340,10 +12340,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="209" t="s">
+      <c r="E32" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="211">
+      <c r="F32" s="174">
         <f>SUM(F25:F31)</f>
         <v>88900</v>
       </c>
@@ -12661,13 +12661,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
       <c r="F15" s="151">
         <f>SUM(F4:F14)</f>
         <v>209475</v>
@@ -12686,7 +12686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -12741,20 +12741,20 @@
       </c>
       <c r="B5" s="145"/>
       <c r="C5" s="145"/>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="76" t="s">
@@ -13047,20 +13047,20 @@
       </c>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="203" t="s">
+      <c r="D15" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="145"/>
@@ -13355,20 +13355,20 @@
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="203"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="145"/>
@@ -13680,20 +13680,20 @@
       </c>
       <c r="B33" s="145"/>
       <c r="C33" s="145"/>
-      <c r="D33" s="212" t="s">
+      <c r="D33" s="211" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="212"/>
+      <c r="N33" s="212"/>
+      <c r="O33" s="213"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C34" s="76" t="s">
@@ -14022,20 +14022,20 @@
       </c>
       <c r="B44" s="145"/>
       <c r="C44" s="145"/>
-      <c r="D44" s="212" t="s">
+      <c r="D44" s="211" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="213"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="214"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
+      <c r="K44" s="212"/>
+      <c r="L44" s="212"/>
+      <c r="M44" s="212"/>
+      <c r="N44" s="212"/>
+      <c r="O44" s="213"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C45" s="76" t="s">
@@ -14328,20 +14328,20 @@
       </c>
       <c r="B54" s="145"/>
       <c r="C54" s="145"/>
-      <c r="D54" s="203" t="s">
+      <c r="D54" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="203"/>
-      <c r="H54" s="203"/>
-      <c r="I54" s="203"/>
-      <c r="J54" s="203"/>
-      <c r="K54" s="203"/>
-      <c r="L54" s="203"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="203"/>
-      <c r="O54" s="203"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="207"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="207"/>
+      <c r="J54" s="207"/>
+      <c r="K54" s="207"/>
+      <c r="L54" s="207"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="207"/>
+      <c r="O54" s="207"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="145"/>
@@ -14634,20 +14634,20 @@
       <c r="A64" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="207" t="s">
+      <c r="D64" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="207"/>
-      <c r="F64" s="207"/>
-      <c r="G64" s="207"/>
-      <c r="H64" s="207"/>
-      <c r="I64" s="207"/>
-      <c r="J64" s="207"/>
-      <c r="K64" s="207"/>
-      <c r="L64" s="207"/>
-      <c r="M64" s="207"/>
-      <c r="N64" s="207"/>
-      <c r="O64" s="207"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
+      <c r="I64" s="214"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="214"/>
+      <c r="L64" s="214"/>
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
+      <c r="O64" s="214"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C65" s="76" t="s">
@@ -14959,20 +14959,20 @@
       </c>
       <c r="B76" s="145"/>
       <c r="C76" s="145"/>
-      <c r="D76" s="203" t="s">
+      <c r="D76" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="203"/>
-      <c r="H76" s="203"/>
-      <c r="I76" s="203"/>
-      <c r="J76" s="203"/>
-      <c r="K76" s="203"/>
-      <c r="L76" s="203"/>
-      <c r="M76" s="203"/>
-      <c r="N76" s="203"/>
-      <c r="O76" s="203"/>
+      <c r="E76" s="207"/>
+      <c r="F76" s="207"/>
+      <c r="G76" s="207"/>
+      <c r="H76" s="207"/>
+      <c r="I76" s="207"/>
+      <c r="J76" s="207"/>
+      <c r="K76" s="207"/>
+      <c r="L76" s="207"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="207"/>
+      <c r="O76" s="207"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="145"/>
@@ -15267,20 +15267,20 @@
       </c>
       <c r="B86" s="145"/>
       <c r="C86" s="145"/>
-      <c r="D86" s="203" t="s">
+      <c r="D86" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="203"/>
-      <c r="F86" s="203"/>
-      <c r="G86" s="203"/>
-      <c r="H86" s="203"/>
-      <c r="I86" s="203"/>
-      <c r="J86" s="203"/>
-      <c r="K86" s="203"/>
-      <c r="L86" s="203"/>
-      <c r="M86" s="203"/>
-      <c r="N86" s="203"/>
-      <c r="O86" s="203"/>
+      <c r="E86" s="207"/>
+      <c r="F86" s="207"/>
+      <c r="G86" s="207"/>
+      <c r="H86" s="207"/>
+      <c r="I86" s="207"/>
+      <c r="J86" s="207"/>
+      <c r="K86" s="207"/>
+      <c r="L86" s="207"/>
+      <c r="M86" s="207"/>
+      <c r="N86" s="207"/>
+      <c r="O86" s="207"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="145"/>
@@ -15582,7 +15582,7 @@
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C99" s="204" t="s">
+      <c r="C99" s="208" t="s">
         <v>155</v>
       </c>
       <c r="D99" s="92">
@@ -15599,13 +15599,13 @@
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C100" s="205"/>
+      <c r="C100" s="209"/>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
       <c r="F100" s="87"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C101" s="205"/>
+      <c r="C101" s="209"/>
       <c r="D101" s="87" t="s">
         <v>4</v>
       </c>
@@ -15617,7 +15617,7 @@
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="206"/>
+      <c r="C102" s="210"/>
       <c r="D102" s="92">
         <f>D99/12</f>
         <v>130000</v>
